--- a/xlsx2erl/xlsx/T测试-test.xlsx
+++ b/xlsx2erl/xlsx/T测试-test.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tmp\Xlsx-Reader-Writer\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\tmp\ptolemaios\xlsx2erl\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{548E5B13-AC60-4018-9C40-96D015EA3684}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{113CED3C-0943-4CD5-B73F-F26C31C77682}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -783,7 +783,7 @@
   <dimension ref="A1:P15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" customHeight="1"/>

--- a/xlsx2erl/xlsx/T测试-test.xlsx
+++ b/xlsx2erl/xlsx/T测试-test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\tmp\ptolemaios\xlsx2erl\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B48588F-B02A-4D25-8B5A-A3308AF9FB49}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81511872-8A89-4990-806D-94746E56D749}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -451,7 +451,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -637,7 +637,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
